--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H2">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I2">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J2">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8672823333333333</v>
+        <v>1.608984</v>
       </c>
       <c r="N2">
-        <v>2.601847</v>
+        <v>4.826952</v>
       </c>
       <c r="O2">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="P2">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="Q2">
-        <v>9.887432004578889</v>
+        <v>13.565299588776</v>
       </c>
       <c r="R2">
-        <v>88.98688804120999</v>
+        <v>122.087696298984</v>
       </c>
       <c r="S2">
-        <v>0.001718471912214393</v>
+        <v>0.002952504570130865</v>
       </c>
       <c r="T2">
-        <v>0.001718471912214393</v>
+        <v>0.002952504570130864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H3">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I3">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J3">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.557081</v>
       </c>
       <c r="O3">
-        <v>0.03186327428311168</v>
+        <v>0.02357597197220777</v>
       </c>
       <c r="P3">
-        <v>0.03186327428311169</v>
+        <v>0.02357597197220776</v>
       </c>
       <c r="Q3">
-        <v>13.51747298064778</v>
+        <v>9.996550499475223</v>
       </c>
       <c r="R3">
-        <v>121.65725682583</v>
+        <v>89.968954495277</v>
       </c>
       <c r="S3">
-        <v>0.002349386335157865</v>
+        <v>0.002175761828339222</v>
       </c>
       <c r="T3">
-        <v>0.002349386335157865</v>
+        <v>0.002175761828339221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H4">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I4">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J4">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.21723233333333</v>
+        <v>28.890029</v>
       </c>
       <c r="N4">
-        <v>48.651697</v>
+        <v>86.670087</v>
       </c>
       <c r="O4">
-        <v>0.4358074403843606</v>
+        <v>0.5744405432265413</v>
       </c>
       <c r="P4">
-        <v>0.4358074403843607</v>
+        <v>0.5744405432265411</v>
       </c>
       <c r="Q4">
-        <v>184.8841788140789</v>
+        <v>243.5710352081977</v>
       </c>
       <c r="R4">
-        <v>1663.95760932671</v>
+        <v>2192.139316873779</v>
       </c>
       <c r="S4">
-        <v>0.03213354773592193</v>
+        <v>0.05301354311398573</v>
       </c>
       <c r="T4">
-        <v>0.03213354773592193</v>
+        <v>0.05301354311398571</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H5">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I5">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J5">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.522545</v>
+        <v>0.2739456666666667</v>
       </c>
       <c r="N5">
-        <v>1.567635</v>
+        <v>0.821837</v>
       </c>
       <c r="O5">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722453</v>
       </c>
       <c r="P5">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722452</v>
       </c>
       <c r="Q5">
-        <v>5.957262079783335</v>
+        <v>2.309628336503223</v>
       </c>
       <c r="R5">
-        <v>53.61535871805</v>
+        <v>20.786655028529</v>
       </c>
       <c r="S5">
-        <v>0.001035393978240923</v>
+        <v>0.0005026935213780124</v>
       </c>
       <c r="T5">
-        <v>0.001035393978240923</v>
+        <v>0.0005026935213780122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H6">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I6">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J6">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.413711999999999</v>
+        <v>7.406498999999999</v>
       </c>
       <c r="N6">
-        <v>22.241136</v>
+        <v>22.219497</v>
       </c>
       <c r="O6">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611026</v>
       </c>
       <c r="P6">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611025</v>
       </c>
       <c r="Q6">
-        <v>84.51985066938667</v>
+        <v>62.44398815586101</v>
       </c>
       <c r="R6">
-        <v>760.67865602448</v>
+        <v>561.9958934027489</v>
       </c>
       <c r="S6">
-        <v>0.01468985974645718</v>
+        <v>0.01359101280445901</v>
       </c>
       <c r="T6">
-        <v>0.01468985974645718</v>
+        <v>0.013591012804459</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H7">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I7">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J7">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.00545633333333</v>
+        <v>10.92731033333333</v>
       </c>
       <c r="N7">
-        <v>33.016369</v>
+        <v>32.781931</v>
       </c>
       <c r="O7">
-        <v>0.2957508196409994</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="P7">
-        <v>0.2957508196409995</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="Q7">
-        <v>125.4674481341856</v>
+        <v>92.1278510980808</v>
       </c>
       <c r="R7">
-        <v>1129.20703320767</v>
+        <v>829.150659882727</v>
       </c>
       <c r="S7">
-        <v>0.02180670222722782</v>
+        <v>0.02005174302442093</v>
       </c>
       <c r="T7">
-        <v>0.02180670222722782</v>
+        <v>0.02005174302442092</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H8">
         <v>165.227989</v>
       </c>
       <c r="I8">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J8">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8672823333333333</v>
+        <v>1.608984</v>
       </c>
       <c r="N8">
-        <v>2.601847</v>
+        <v>4.826952</v>
       </c>
       <c r="O8">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="P8">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="Q8">
-        <v>47.76643861063144</v>
+        <v>88.61639688439202</v>
       </c>
       <c r="R8">
-        <v>429.8979474956829</v>
+        <v>797.5475719595281</v>
       </c>
       <c r="S8">
-        <v>0.008301982057714215</v>
+        <v>0.01928747058459221</v>
       </c>
       <c r="T8">
-        <v>0.008301982057714215</v>
+        <v>0.01928747058459221</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H9">
         <v>165.227989</v>
       </c>
       <c r="I9">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J9">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.557081</v>
       </c>
       <c r="O9">
-        <v>0.03186327428311168</v>
+        <v>0.02357597197220777</v>
       </c>
       <c r="P9">
-        <v>0.03186327428311169</v>
+        <v>0.02357597197220776</v>
       </c>
       <c r="Q9">
-        <v>65.30326003778988</v>
+        <v>65.3032600377899</v>
       </c>
       <c r="R9">
         <v>587.7293403401089</v>
       </c>
       <c r="S9">
-        <v>0.01134994588069019</v>
+        <v>0.01421333693695562</v>
       </c>
       <c r="T9">
-        <v>0.01134994588069019</v>
+        <v>0.01421333693695562</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H10">
         <v>165.227989</v>
       </c>
       <c r="I10">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J10">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.21723233333333</v>
+        <v>28.890029</v>
       </c>
       <c r="N10">
-        <v>48.651697</v>
+        <v>86.670087</v>
       </c>
       <c r="O10">
-        <v>0.4358074403843606</v>
+        <v>0.5744405432265413</v>
       </c>
       <c r="P10">
-        <v>0.4358074403843607</v>
+        <v>0.5744405432265411</v>
       </c>
       <c r="Q10">
-        <v>893.1802285274813</v>
+        <v>1591.147131273894</v>
       </c>
       <c r="R10">
-        <v>8038.622056747332</v>
+        <v>14320.32418146504</v>
       </c>
       <c r="S10">
-        <v>0.1552379965352876</v>
+        <v>0.3463151805894376</v>
       </c>
       <c r="T10">
-        <v>0.1552379965352876</v>
+        <v>0.3463151805894376</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H11">
         <v>165.227989</v>
       </c>
       <c r="I11">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J11">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.522545</v>
+        <v>0.2739456666666667</v>
       </c>
       <c r="N11">
-        <v>1.567635</v>
+        <v>0.821837</v>
       </c>
       <c r="O11">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722453</v>
       </c>
       <c r="P11">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722452</v>
       </c>
       <c r="Q11">
-        <v>28.77968650400167</v>
+        <v>15.08783053286589</v>
       </c>
       <c r="R11">
-        <v>259.017178536015</v>
+        <v>135.790474795793</v>
       </c>
       <c r="S11">
-        <v>0.005002014969767563</v>
+        <v>0.003283885351010225</v>
       </c>
       <c r="T11">
-        <v>0.005002014969767563</v>
+        <v>0.003283885351010224</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H12">
         <v>165.227989</v>
       </c>
       <c r="I12">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J12">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.413711999999999</v>
+        <v>7.406498999999999</v>
       </c>
       <c r="N12">
-        <v>22.241136</v>
+        <v>22.219497</v>
       </c>
       <c r="O12">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611026</v>
       </c>
       <c r="P12">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611025</v>
       </c>
       <c r="Q12">
-        <v>408.3175749283893</v>
+        <v>407.920311766837</v>
       </c>
       <c r="R12">
-        <v>3674.858174355503</v>
+        <v>3671.282805901533</v>
       </c>
       <c r="S12">
-        <v>0.07096709069179766</v>
+        <v>0.08878437050791776</v>
       </c>
       <c r="T12">
-        <v>0.07096709069179767</v>
+        <v>0.08878437050791775</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H13">
         <v>165.227989</v>
       </c>
       <c r="I13">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J13">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.00545633333333</v>
+        <v>10.92731033333333</v>
       </c>
       <c r="N13">
-        <v>33.016369</v>
+        <v>32.781931</v>
       </c>
       <c r="O13">
-        <v>0.2957508196409994</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="P13">
-        <v>0.2957508196409995</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="Q13">
-        <v>606.1364726613267</v>
+        <v>601.8325038518622</v>
       </c>
       <c r="R13">
-        <v>5455.22825395194</v>
+        <v>5416.49253466676</v>
       </c>
       <c r="S13">
-        <v>0.1053487399715939</v>
+        <v>0.1309896037641624</v>
       </c>
       <c r="T13">
-        <v>0.105348739971594</v>
+        <v>0.1309896037641624</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H14">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I14">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J14">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8672823333333333</v>
+        <v>1.608984</v>
       </c>
       <c r="N14">
-        <v>2.601847</v>
+        <v>4.826952</v>
       </c>
       <c r="O14">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="P14">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="Q14">
-        <v>11.69091237092278</v>
+        <v>1.87006578876</v>
       </c>
       <c r="R14">
-        <v>105.218211338305</v>
+        <v>16.83059209884</v>
       </c>
       <c r="S14">
-        <v>0.002031923408250657</v>
+        <v>0.0004070221782884688</v>
       </c>
       <c r="T14">
-        <v>0.002031923408250658</v>
+        <v>0.0004070221782884688</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H15">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I15">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J15">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.557081</v>
       </c>
       <c r="O15">
-        <v>0.03186327428311168</v>
+        <v>0.02357597197220777</v>
       </c>
       <c r="P15">
-        <v>0.03186327428311169</v>
+        <v>0.02357597197220776</v>
       </c>
       <c r="Q15">
-        <v>15.98307750889055</v>
+        <v>1.378090249488333</v>
       </c>
       <c r="R15">
-        <v>143.847697580015</v>
+        <v>12.402812245395</v>
       </c>
       <c r="S15">
-        <v>0.002777917436706946</v>
+        <v>0.0002999430814660111</v>
       </c>
       <c r="T15">
-        <v>0.002777917436706947</v>
+        <v>0.000299943081466011</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H16">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I16">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J16">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.21723233333333</v>
+        <v>28.890029</v>
       </c>
       <c r="N16">
-        <v>48.651697</v>
+        <v>86.670087</v>
       </c>
       <c r="O16">
-        <v>0.4358074403843606</v>
+        <v>0.5744405432265413</v>
       </c>
       <c r="P16">
-        <v>0.4358074403843607</v>
+        <v>0.5744405432265411</v>
       </c>
       <c r="Q16">
-        <v>218.6072917906727</v>
+        <v>33.577869555685</v>
       </c>
       <c r="R16">
-        <v>1967.465626116055</v>
+        <v>302.200826001165</v>
       </c>
       <c r="S16">
-        <v>0.03799474834047439</v>
+        <v>0.007308265672248472</v>
       </c>
       <c r="T16">
-        <v>0.03799474834047441</v>
+        <v>0.00730826567224847</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H17">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I17">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J17">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.522545</v>
+        <v>0.2739456666666667</v>
       </c>
       <c r="N17">
-        <v>1.567635</v>
+        <v>0.821837</v>
       </c>
       <c r="O17">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722453</v>
       </c>
       <c r="P17">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722452</v>
       </c>
       <c r="Q17">
-        <v>7.043874376391666</v>
+        <v>0.3183974602683333</v>
       </c>
       <c r="R17">
-        <v>63.394869387525</v>
+        <v>2.865577142415</v>
       </c>
       <c r="S17">
-        <v>0.001224251176988124</v>
+        <v>6.929960893293747E-05</v>
       </c>
       <c r="T17">
-        <v>0.001224251176988124</v>
+        <v>6.929960893293745E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H18">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I18">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J18">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.413711999999999</v>
+        <v>7.406498999999999</v>
       </c>
       <c r="N18">
-        <v>22.241136</v>
+        <v>22.219497</v>
       </c>
       <c r="O18">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611026</v>
       </c>
       <c r="P18">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611025</v>
       </c>
       <c r="Q18">
-        <v>99.93638058109332</v>
+        <v>8.608314560234998</v>
       </c>
       <c r="R18">
-        <v>899.4274252298399</v>
+        <v>77.47483104211499</v>
       </c>
       <c r="S18">
-        <v>0.01736930913481323</v>
+        <v>0.001873610524698422</v>
       </c>
       <c r="T18">
-        <v>0.01736930913481323</v>
+        <v>0.001873610524698422</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H19">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I19">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J19">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.00545633333333</v>
+        <v>10.92731033333333</v>
       </c>
       <c r="N19">
-        <v>33.016369</v>
+        <v>32.781931</v>
       </c>
       <c r="O19">
-        <v>0.2957508196409994</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="P19">
-        <v>0.2957508196409995</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="Q19">
-        <v>148.3528727035261</v>
+        <v>12.70043034457166</v>
       </c>
       <c r="R19">
-        <v>1335.175854331735</v>
+        <v>114.303873101145</v>
       </c>
       <c r="S19">
-        <v>0.02578427287482367</v>
+        <v>0.002764264687969195</v>
       </c>
       <c r="T19">
-        <v>0.02578427287482368</v>
+        <v>0.002764264687969195</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H20">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I20">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J20">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.8672823333333333</v>
+        <v>1.608984</v>
       </c>
       <c r="N20">
-        <v>2.601847</v>
+        <v>4.826952</v>
       </c>
       <c r="O20">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="P20">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="Q20">
-        <v>49.83791124163411</v>
+        <v>38.7894801294</v>
       </c>
       <c r="R20">
-        <v>448.541201174707</v>
+        <v>349.1053211646</v>
       </c>
       <c r="S20">
-        <v>0.008662011591333299</v>
+        <v>0.008442579288835857</v>
       </c>
       <c r="T20">
-        <v>0.008662011591333299</v>
+        <v>0.008442579288835857</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H21">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I21">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J21">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.557081</v>
       </c>
       <c r="O21">
-        <v>0.03186327428311168</v>
+        <v>0.02357597197220777</v>
       </c>
       <c r="P21">
-        <v>0.03186327428311169</v>
+        <v>0.02357597197220776</v>
       </c>
       <c r="Q21">
-        <v>68.13524667565122</v>
+        <v>28.58477208146389</v>
       </c>
       <c r="R21">
-        <v>613.217220080861</v>
+        <v>257.262948733175</v>
       </c>
       <c r="S21">
-        <v>0.01184215553539906</v>
+        <v>0.006221511707452557</v>
       </c>
       <c r="T21">
-        <v>0.01184215553539906</v>
+        <v>0.006221511707452556</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H22">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I22">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J22">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.21723233333333</v>
+        <v>28.890029</v>
       </c>
       <c r="N22">
-        <v>48.651697</v>
+        <v>86.670087</v>
       </c>
       <c r="O22">
-        <v>0.4358074403843606</v>
+        <v>0.5744405432265413</v>
       </c>
       <c r="P22">
-        <v>0.4358074403843607</v>
+        <v>0.5744405432265411</v>
       </c>
       <c r="Q22">
-        <v>931.914504135284</v>
+        <v>696.4825043836915</v>
       </c>
       <c r="R22">
-        <v>8387.230537217558</v>
+        <v>6268.342539453224</v>
       </c>
       <c r="S22">
-        <v>0.1619701555671934</v>
+        <v>0.1515902957949037</v>
       </c>
       <c r="T22">
-        <v>0.1619701555671934</v>
+        <v>0.1515902957949036</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H23">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I23">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J23">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.522545</v>
+        <v>0.2739456666666667</v>
       </c>
       <c r="N23">
-        <v>1.567635</v>
+        <v>0.821837</v>
       </c>
       <c r="O23">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722453</v>
       </c>
       <c r="P23">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722452</v>
       </c>
       <c r="Q23">
-        <v>30.02776642488167</v>
+        <v>6.60429811216389</v>
       </c>
       <c r="R23">
-        <v>270.249897823935</v>
+        <v>59.438683009475</v>
       </c>
       <c r="S23">
-        <v>0.005218935833267589</v>
+        <v>0.001437433816412302</v>
       </c>
       <c r="T23">
-        <v>0.00521893583326759</v>
+        <v>0.001437433816412302</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H24">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I24">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J24">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.413711999999999</v>
+        <v>7.406498999999999</v>
       </c>
       <c r="N24">
-        <v>22.241136</v>
+        <v>22.219497</v>
       </c>
       <c r="O24">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611026</v>
       </c>
       <c r="P24">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611025</v>
       </c>
       <c r="Q24">
-        <v>426.0249591467573</v>
+        <v>178.556309937775</v>
       </c>
       <c r="R24">
-        <v>3834.224632320816</v>
+        <v>1607.006789439975</v>
       </c>
       <c r="S24">
-        <v>0.07404469895286706</v>
+        <v>0.03886300613317688</v>
       </c>
       <c r="T24">
-        <v>0.07404469895286707</v>
+        <v>0.03886300613317687</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H25">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I25">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J25">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.00545633333333</v>
+        <v>10.92731033333333</v>
       </c>
       <c r="N25">
-        <v>33.016369</v>
+        <v>32.781931</v>
       </c>
       <c r="O25">
-        <v>0.2957508196409994</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="P25">
-        <v>0.2957508196409995</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="Q25">
-        <v>632.4226089170654</v>
+        <v>263.4362349424361</v>
       </c>
       <c r="R25">
-        <v>5691.803480253589</v>
+        <v>2370.926114481925</v>
       </c>
       <c r="S25">
-        <v>0.1099173667712734</v>
+        <v>0.0573372288990332</v>
       </c>
       <c r="T25">
-        <v>0.1099173667712734</v>
+        <v>0.05733722889903319</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H26">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I26">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J26">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.8672823333333333</v>
+        <v>1.608984</v>
       </c>
       <c r="N26">
-        <v>2.601847</v>
+        <v>4.826952</v>
       </c>
       <c r="O26">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="P26">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="Q26">
-        <v>2.311199008041666</v>
+        <v>2.506458649032</v>
       </c>
       <c r="R26">
-        <v>20.800791072375</v>
+        <v>22.558127841288</v>
       </c>
       <c r="S26">
-        <v>0.0004016948563608888</v>
+        <v>0.0005455338872304806</v>
       </c>
       <c r="T26">
-        <v>0.0004016948563608888</v>
+        <v>0.0005455338872304806</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H27">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I27">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J27">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.557081</v>
       </c>
       <c r="O27">
-        <v>0.03186327428311168</v>
+        <v>0.02357597197220777</v>
       </c>
       <c r="P27">
-        <v>0.03186327428311169</v>
+        <v>0.02357597197220776</v>
       </c>
       <c r="Q27">
-        <v>3.159725409958333</v>
+        <v>1.847061341765444</v>
       </c>
       <c r="R27">
-        <v>28.437528689625</v>
+        <v>16.623552075889</v>
       </c>
       <c r="S27">
-        <v>0.0005491718542093545</v>
+        <v>0.0004020152313765882</v>
       </c>
       <c r="T27">
-        <v>0.0005491718542093546</v>
+        <v>0.0004020152313765881</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H28">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I28">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J28">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>16.21723233333333</v>
+        <v>28.890029</v>
       </c>
       <c r="N28">
-        <v>48.651697</v>
+        <v>86.670087</v>
       </c>
       <c r="O28">
-        <v>0.4358074403843606</v>
+        <v>0.5744405432265413</v>
       </c>
       <c r="P28">
-        <v>0.4358074403843607</v>
+        <v>0.5744405432265411</v>
       </c>
       <c r="Q28">
-        <v>43.21689701429166</v>
+        <v>45.00458864590033</v>
       </c>
       <c r="R28">
-        <v>388.952073128625</v>
+        <v>405.041297813103</v>
       </c>
       <c r="S28">
-        <v>0.0075112550577065</v>
+        <v>0.009795305498731692</v>
       </c>
       <c r="T28">
-        <v>0.007511255057706501</v>
+        <v>0.00979530549873169</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H29">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I29">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J29">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.522545</v>
+        <v>0.2739456666666667</v>
       </c>
       <c r="N29">
-        <v>1.567635</v>
+        <v>0.821837</v>
       </c>
       <c r="O29">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722453</v>
       </c>
       <c r="P29">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722452</v>
       </c>
       <c r="Q29">
-        <v>1.392517106875</v>
+        <v>0.4267497287614445</v>
       </c>
       <c r="R29">
-        <v>12.532653961875</v>
+        <v>3.840747558853</v>
       </c>
       <c r="S29">
-        <v>0.0002420245756769333</v>
+        <v>9.288261687289132E-05</v>
       </c>
       <c r="T29">
-        <v>0.0002420245756769333</v>
+        <v>9.288261687289131E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H30">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I30">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J30">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.413711999999999</v>
+        <v>7.406498999999999</v>
       </c>
       <c r="N30">
-        <v>22.241136</v>
+        <v>22.219497</v>
       </c>
       <c r="O30">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611026</v>
       </c>
       <c r="P30">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611025</v>
       </c>
       <c r="Q30">
-        <v>19.756615766</v>
+        <v>11.537767608377</v>
       </c>
       <c r="R30">
-        <v>177.809541894</v>
+        <v>103.839908475393</v>
       </c>
       <c r="S30">
-        <v>0.003433772212902216</v>
+        <v>0.002511209676565253</v>
       </c>
       <c r="T30">
-        <v>0.003433772212902216</v>
+        <v>0.002511209676565252</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H31">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I31">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J31">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.00545633333333</v>
+        <v>10.92731033333333</v>
       </c>
       <c r="N31">
-        <v>33.016369</v>
+        <v>32.781931</v>
       </c>
       <c r="O31">
-        <v>0.2957508196409994</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="P31">
-        <v>0.2957508196409995</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="Q31">
-        <v>29.32816544629166</v>
+        <v>17.02245112172655</v>
       </c>
       <c r="R31">
-        <v>263.953489016625</v>
+        <v>153.202060095539</v>
       </c>
       <c r="S31">
-        <v>0.005097342619690205</v>
+        <v>0.00370495796298604</v>
       </c>
       <c r="T31">
-        <v>0.005097342619690206</v>
+        <v>0.00370495796298604</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H32">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I32">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J32">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.8672823333333333</v>
+        <v>1.608984</v>
       </c>
       <c r="N32">
-        <v>2.601847</v>
+        <v>4.826952</v>
       </c>
       <c r="O32">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="P32">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="Q32">
-        <v>12.60323383220255</v>
+        <v>1.642249207872</v>
       </c>
       <c r="R32">
-        <v>113.429104489823</v>
+        <v>14.780242870848</v>
       </c>
       <c r="S32">
-        <v>0.002190488221176162</v>
+        <v>0.0003574376120338507</v>
       </c>
       <c r="T32">
-        <v>0.002190488221176162</v>
+        <v>0.0003574376120338507</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H33">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I33">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J33">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.557081</v>
       </c>
       <c r="O33">
-        <v>0.03186327428311168</v>
+        <v>0.02357597197220777</v>
       </c>
       <c r="P33">
-        <v>0.03186327428311169</v>
+        <v>0.02357597197220776</v>
       </c>
       <c r="Q33">
-        <v>17.23034582859211</v>
+        <v>1.210207487993778</v>
       </c>
       <c r="R33">
-        <v>155.073112457329</v>
+        <v>10.891867391944</v>
       </c>
       <c r="S33">
-        <v>0.002994697240948265</v>
+        <v>0.0002634031866177625</v>
       </c>
       <c r="T33">
-        <v>0.002994697240948266</v>
+        <v>0.0002634031866177624</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H34">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I34">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J34">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>16.21723233333333</v>
+        <v>28.890029</v>
       </c>
       <c r="N34">
-        <v>48.651697</v>
+        <v>86.670087</v>
       </c>
       <c r="O34">
-        <v>0.4358074403843606</v>
+        <v>0.5744405432265413</v>
       </c>
       <c r="P34">
-        <v>0.4358074403843607</v>
+        <v>0.5744405432265411</v>
       </c>
       <c r="Q34">
-        <v>235.6667066220525</v>
+        <v>29.48732071956533</v>
       </c>
       <c r="R34">
-        <v>2121.000359598473</v>
+        <v>265.385886476088</v>
       </c>
       <c r="S34">
-        <v>0.04095973714777679</v>
+        <v>0.006417952557234066</v>
       </c>
       <c r="T34">
-        <v>0.04095973714777679</v>
+        <v>0.006417952557234065</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H35">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I35">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J35">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.522545</v>
+        <v>0.2739456666666667</v>
       </c>
       <c r="N35">
-        <v>1.567635</v>
+        <v>0.821837</v>
       </c>
       <c r="O35">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722453</v>
       </c>
       <c r="P35">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722452</v>
       </c>
       <c r="Q35">
-        <v>7.593555834968333</v>
+        <v>0.2796094020097778</v>
       </c>
       <c r="R35">
-        <v>68.34200251471501</v>
+        <v>2.516484618088</v>
       </c>
       <c r="S35">
-        <v>0.001319787828647685</v>
+        <v>6.085733911608481E-05</v>
       </c>
       <c r="T35">
-        <v>0.001319787828647685</v>
+        <v>6.085733911608481E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H36">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I36">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J36">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.413711999999999</v>
+        <v>7.406498999999999</v>
       </c>
       <c r="N36">
-        <v>22.241136</v>
+        <v>22.219497</v>
       </c>
       <c r="O36">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611026</v>
       </c>
       <c r="P36">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611025</v>
       </c>
       <c r="Q36">
-        <v>107.7350965302027</v>
+        <v>7.559625897991999</v>
       </c>
       <c r="R36">
-        <v>969.6158687718238</v>
+        <v>68.03663308192799</v>
       </c>
       <c r="S36">
-        <v>0.01872475454305233</v>
+        <v>0.001645362114285228</v>
       </c>
       <c r="T36">
-        <v>0.01872475454305234</v>
+        <v>0.001645362114285228</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H37">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I37">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J37">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.00545633333333</v>
+        <v>10.92731033333333</v>
       </c>
       <c r="N37">
-        <v>33.016369</v>
+        <v>32.781931</v>
       </c>
       <c r="O37">
-        <v>0.2957508196409994</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="P37">
-        <v>0.2957508196409995</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="Q37">
-        <v>159.9298570581912</v>
+        <v>11.15322883203822</v>
       </c>
       <c r="R37">
-        <v>1439.368713523721</v>
+        <v>100.379059488344</v>
       </c>
       <c r="S37">
-        <v>0.02779639517639037</v>
+        <v>0.002427514326742521</v>
       </c>
       <c r="T37">
-        <v>0.02779639517639038</v>
+        <v>0.002427514326742521</v>
       </c>
     </row>
   </sheetData>
